--- a/berlin52_tsp_validator.xlsx
+++ b/berlin52_tsp_validator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEN\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78CDD51A-88C4-4628-8AD5-AD0C521136C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F84F4B0-CF28-4062-A97D-ED0F3752049E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B73584BF-464A-4252-877B-2C54EBFA93F8}"/>
+    <workbookView xWindow="10935" yWindow="4335" windowWidth="14670" windowHeight="11370" xr2:uid="{B73584BF-464A-4252-877B-2C54EBFA93F8}"/>
   </bookViews>
   <sheets>
     <sheet name="solution" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>nodeId</t>
   </si>
@@ -51,19 +51,13 @@
     <t>to</t>
   </si>
   <si>
-    <t>py-dima</t>
-  </si>
-  <si>
-    <t>equal?</t>
-  </si>
-  <si>
-    <t>Gerundet</t>
-  </si>
-  <si>
     <t>dist</t>
   </si>
   <si>
     <t>Loc_ID (start =0)</t>
+  </si>
+  <si>
+    <t>rounded</t>
   </si>
 </sst>
 </file>
@@ -430,24 +424,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F22926-16C3-4456-8272-330F5BE05F8D}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -456,19 +447,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>48</v>
       </c>
@@ -479,32 +464,23 @@
         <v>575</v>
       </c>
       <c r="D2">
-        <f>VLOOKUP(A2,coords!$A$1:$C$53,2,FALSE)</f>
         <v>605</v>
       </c>
       <c r="E2">
-        <f>VLOOKUP(A2,coords!$A$1:$C$53,3,FALSE)</f>
         <v>625</v>
       </c>
       <c r="F2">
-        <f>SQRT((B2-D2)^2+(C2-E2)^2)</f>
+        <f t="shared" ref="F2:F33" si="0">SQRT((B2-D2)^2+(C2-E2)^2)</f>
         <v>64.031242374328485</v>
       </c>
       <c r="G2">
-        <v>64.0312423743284</v>
-      </c>
-      <c r="H2" t="str">
-        <f>IF(ABS(F2-G2)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J2">
-        <f t="shared" ref="J2:J30" si="0">_xlfn.FLOOR.MATH(F2)</f>
+        <f>_xlfn.FLOOR.MATH(F2)</f>
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <f>D2</f>
@@ -516,867 +492,699 @@
       </c>
       <c r="D3">
         <f>VLOOKUP(A3,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>685</v>
+        <v>575</v>
       </c>
       <c r="E3">
         <f>VLOOKUP(A3,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>595</v>
+        <v>665</v>
       </c>
       <c r="F3">
-        <f>SQRT((B3-D3)^2+(C3-E3)^2)</f>
-        <v>85.440037453175307</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="G3">
-        <v>85.440037453175293</v>
-      </c>
-      <c r="H3" t="str">
-        <f>IF(ABS(F3-G3)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J3">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F3)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B53" si="1">D3</f>
-        <v>685</v>
+        <v>575</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C53" si="2">E3</f>
-        <v>595</v>
+        <v>665</v>
       </c>
       <c r="D4">
         <f>VLOOKUP(A4,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>685</v>
+        <v>555</v>
       </c>
       <c r="E4">
         <f>VLOOKUP(A4,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>610</v>
+        <v>815</v>
       </c>
       <c r="F4">
-        <f>SQRT((B4-D4)^2+(C4-E4)^2)</f>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>151.32745950421557</v>
       </c>
       <c r="G4">
-        <v>15</v>
-      </c>
-      <c r="H4" t="str">
-        <f>IF(ABS(F4-G4)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F4)</f>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <f t="shared" si="1"/>
-        <v>685</v>
+        <v>555</v>
       </c>
       <c r="C5">
         <f t="shared" si="2"/>
-        <v>610</v>
+        <v>815</v>
       </c>
       <c r="D5">
         <f>VLOOKUP(A5,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>720</v>
+        <v>510</v>
       </c>
       <c r="E5">
         <f>VLOOKUP(A5,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>635</v>
+        <v>875</v>
       </c>
       <c r="F5">
-        <f>SQRT((B5-D5)^2+(C5-E5)^2)</f>
-        <v>43.011626335213137</v>
+        <f t="shared" si="0"/>
+        <v>75</v>
       </c>
       <c r="G5">
-        <v>43.011626335213101</v>
-      </c>
-      <c r="H5" t="str">
-        <f>IF(ABS(F5-G5)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F5)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <f t="shared" si="1"/>
-        <v>720</v>
+        <v>510</v>
       </c>
       <c r="C6">
         <f t="shared" si="2"/>
-        <v>635</v>
+        <v>875</v>
       </c>
       <c r="D6">
         <f>VLOOKUP(A6,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>760</v>
+        <v>475</v>
       </c>
       <c r="E6">
         <f>VLOOKUP(A6,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>650</v>
+        <v>960</v>
       </c>
       <c r="F6">
-        <f>SQRT((B6-D6)^2+(C6-E6)^2)</f>
-        <v>42.720018726587654</v>
+        <f t="shared" si="0"/>
+        <v>91.923881554251182</v>
       </c>
       <c r="G6">
-        <v>42.720018726587597</v>
-      </c>
-      <c r="H6" t="str">
-        <f>IF(ABS(F6-G6)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F6)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <f t="shared" si="1"/>
-        <v>760</v>
+        <v>475</v>
       </c>
       <c r="C7">
         <f t="shared" si="2"/>
-        <v>650</v>
+        <v>960</v>
       </c>
       <c r="D7">
         <f>VLOOKUP(A7,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>795</v>
+        <v>525</v>
       </c>
       <c r="E7">
         <f>VLOOKUP(A7,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>645</v>
+        <v>1000</v>
       </c>
       <c r="F7">
-        <f>SQRT((B7-D7)^2+(C7-E7)^2)</f>
-        <v>35.355339059327378</v>
+        <f t="shared" si="0"/>
+        <v>64.031242374328485</v>
       </c>
       <c r="G7">
-        <v>35.355339059327299</v>
-      </c>
-      <c r="H7" t="str">
-        <f>IF(ABS(F7-G7)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F7)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <f t="shared" si="1"/>
-        <v>795</v>
+        <v>525</v>
       </c>
       <c r="C8">
         <f t="shared" si="2"/>
-        <v>645</v>
+        <v>1000</v>
       </c>
       <c r="D8">
         <f>VLOOKUP(A8,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>770</v>
+        <v>580</v>
       </c>
       <c r="E8">
         <f>VLOOKUP(A8,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>610</v>
+        <v>1175</v>
       </c>
       <c r="F8">
-        <f>SQRT((B8-D8)^2+(C8-E8)^2)</f>
-        <v>43.011626335213137</v>
+        <f t="shared" si="0"/>
+        <v>183.43936327844142</v>
       </c>
       <c r="G8">
-        <v>43.011626335213101</v>
-      </c>
-      <c r="H8" t="str">
-        <f>IF(ABS(F8-G8)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F8)</f>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <f t="shared" si="1"/>
-        <v>770</v>
+        <v>580</v>
       </c>
       <c r="C9">
         <f t="shared" si="2"/>
-        <v>610</v>
+        <v>1175</v>
       </c>
       <c r="D9">
         <f>VLOOKUP(A9,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="E9">
         <f>VLOOKUP(A9,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>580</v>
+        <v>1130</v>
       </c>
       <c r="F9">
-        <f>SQRT((B9-D9)^2+(C9-E9)^2)</f>
-        <v>76.157731058639087</v>
+        <f t="shared" si="0"/>
+        <v>83.21658488546619</v>
       </c>
       <c r="G9">
-        <v>76.157731058639001</v>
-      </c>
-      <c r="H9" t="str">
-        <f>IF(ABS(F9-G9)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F9)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <f t="shared" si="1"/>
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="C10">
         <f t="shared" si="2"/>
-        <v>580</v>
+        <v>1130</v>
       </c>
       <c r="D10">
         <f>VLOOKUP(A10,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>700</v>
+        <v>875</v>
       </c>
       <c r="E10">
         <f>VLOOKUP(A10,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>500</v>
+        <v>920</v>
       </c>
       <c r="F10">
-        <f>SQRT((B10-D10)^2+(C10-E10)^2)</f>
-        <v>80</v>
+        <f t="shared" si="0"/>
+        <v>307.77426793024785</v>
       </c>
       <c r="G10">
-        <v>80</v>
-      </c>
-      <c r="H10" t="str">
-        <f>IF(ABS(F10-G10)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F10)</f>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <f t="shared" si="1"/>
-        <v>700</v>
+        <v>875</v>
       </c>
       <c r="C11">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>920</v>
       </c>
       <c r="D11">
         <f>VLOOKUP(A11,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>595</v>
+        <v>1150</v>
       </c>
       <c r="E11">
         <f>VLOOKUP(A11,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>360</v>
+        <v>1160</v>
       </c>
       <c r="F11">
-        <f>SQRT((B11-D11)^2+(C11-E11)^2)</f>
-        <v>175</v>
+        <f t="shared" si="0"/>
+        <v>365</v>
       </c>
       <c r="G11">
-        <v>175</v>
-      </c>
-      <c r="H11" t="str">
-        <f>IF(ABS(F11-G11)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F11)</f>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <f t="shared" si="1"/>
-        <v>595</v>
+        <v>1150</v>
       </c>
       <c r="C12">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>1160</v>
       </c>
       <c r="D12">
         <f>VLOOKUP(A12,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>560</v>
+        <v>1340</v>
       </c>
       <c r="E12">
         <f>VLOOKUP(A12,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>365</v>
+        <v>725</v>
       </c>
       <c r="F12">
-        <f>SQRT((B12-D12)^2+(C12-E12)^2)</f>
-        <v>35.355339059327378</v>
+        <f t="shared" si="0"/>
+        <v>474.68410548490033</v>
       </c>
       <c r="G12">
-        <v>35.355339059327299</v>
-      </c>
-      <c r="H12" t="str">
-        <f>IF(ABS(F12-G12)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F12)</f>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <f t="shared" si="1"/>
-        <v>560</v>
+        <v>1340</v>
       </c>
       <c r="C13">
         <f t="shared" si="2"/>
-        <v>365</v>
+        <v>725</v>
       </c>
       <c r="D13">
         <f>VLOOKUP(A13,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>480</v>
+        <v>1605</v>
       </c>
       <c r="E13">
         <f>VLOOKUP(A13,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>415</v>
+        <v>620</v>
       </c>
       <c r="F13">
-        <f>SQRT((B13-D13)^2+(C13-E13)^2)</f>
-        <v>94.339811320566042</v>
+        <f t="shared" si="0"/>
+        <v>285.0438562747845</v>
       </c>
       <c r="G13">
-        <v>94.339811320566</v>
-      </c>
-      <c r="H13" t="str">
-        <f>IF(ABS(F13-G13)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F13)</f>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <f t="shared" si="1"/>
-        <v>480</v>
+        <v>1605</v>
       </c>
       <c r="C14">
         <f t="shared" si="2"/>
-        <v>415</v>
+        <v>620</v>
       </c>
       <c r="D14">
         <f>VLOOKUP(A14,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>420</v>
+        <v>1740</v>
       </c>
       <c r="E14">
         <f>VLOOKUP(A14,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>555</v>
+        <v>245</v>
       </c>
       <c r="F14">
-        <f>SQRT((B14-D14)^2+(C14-E14)^2)</f>
-        <v>152.31546211727817</v>
+        <f t="shared" si="0"/>
+        <v>398.55990766759265</v>
       </c>
       <c r="G14">
-        <v>152.315462117278</v>
-      </c>
-      <c r="H14" t="str">
-        <f>IF(ABS(F14-G14)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F14)</f>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <f t="shared" si="1"/>
-        <v>420</v>
+        <v>1740</v>
       </c>
       <c r="C15">
         <f t="shared" si="2"/>
-        <v>555</v>
+        <v>245</v>
       </c>
       <c r="D15">
         <f>VLOOKUP(A15,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>415</v>
+        <v>1530</v>
       </c>
       <c r="E15">
         <f>VLOOKUP(A15,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>635</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <f>SQRT((B15-D15)^2+(C15-E15)^2)</f>
-        <v>80.156097709406993</v>
+        <f t="shared" si="0"/>
+        <v>318.90437438203946</v>
       </c>
       <c r="G15">
-        <v>80.156097709406893</v>
-      </c>
-      <c r="H15" t="str">
-        <f>IF(ABS(F15-G15)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F15)</f>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <f t="shared" si="1"/>
-        <v>415</v>
+        <v>1530</v>
       </c>
       <c r="C16">
         <f t="shared" si="2"/>
-        <v>635</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <f>VLOOKUP(A16,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>345</v>
+        <v>1465</v>
       </c>
       <c r="E16">
         <f>VLOOKUP(A16,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="F16">
-        <f>SQRT((B16-D16)^2+(C16-E16)^2)</f>
-        <v>134.6291201783626</v>
+        <f t="shared" si="0"/>
+        <v>205.54804791094466</v>
       </c>
       <c r="G16">
-        <v>134.629120178362</v>
-      </c>
-      <c r="H16" t="str">
-        <f>IF(ABS(F16-G16)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="0"/>
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F16)</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <f t="shared" si="1"/>
-        <v>345</v>
+        <v>1465</v>
       </c>
       <c r="C17">
         <f t="shared" si="2"/>
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="D17">
         <f>VLOOKUP(A17,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>145</v>
+        <v>1170</v>
       </c>
       <c r="E17">
         <f>VLOOKUP(A17,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>665</v>
+        <v>65</v>
       </c>
       <c r="F17">
-        <f>SQRT((B17-D17)^2+(C17-E17)^2)</f>
-        <v>217.31313812100731</v>
+        <f t="shared" si="0"/>
+        <v>324.4225639501667</v>
       </c>
       <c r="G17">
-        <v>217.313138121007</v>
-      </c>
-      <c r="H17" t="str">
-        <f>IF(ABS(F17-G17)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="0"/>
-        <v>217</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F17)</f>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <f t="shared" si="1"/>
-        <v>145</v>
+        <v>1170</v>
       </c>
       <c r="C18">
         <f t="shared" si="2"/>
-        <v>665</v>
+        <v>65</v>
       </c>
       <c r="D18">
         <f>VLOOKUP(A18,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>300</v>
+        <v>1215</v>
       </c>
       <c r="E18">
         <f>VLOOKUP(A18,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>465</v>
+        <v>245</v>
       </c>
       <c r="F18">
-        <f>SQRT((B18-D18)^2+(C18-E18)^2)</f>
-        <v>253.03161857759991</v>
+        <f t="shared" si="0"/>
+        <v>185.53975315279473</v>
       </c>
       <c r="G18">
-        <v>253.031618577599</v>
-      </c>
-      <c r="H18" t="str">
-        <f>IF(ABS(F18-G18)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="0"/>
-        <v>253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F18)</f>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>1215</v>
       </c>
       <c r="C19">
         <f t="shared" si="2"/>
-        <v>465</v>
+        <v>245</v>
       </c>
       <c r="D19">
         <f>VLOOKUP(A19,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>95</v>
+        <v>1320</v>
       </c>
       <c r="E19">
         <f>VLOOKUP(A19,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>260</v>
+        <v>315</v>
       </c>
       <c r="F19">
-        <f>SQRT((B19-D19)^2+(C19-E19)^2)</f>
-        <v>289.9137802864845</v>
+        <f t="shared" si="0"/>
+        <v>126.19429464123962</v>
       </c>
       <c r="G19">
-        <v>289.91378028648398</v>
-      </c>
-      <c r="H19" t="str">
-        <f>IF(ABS(F19-G19)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="0"/>
-        <v>289</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F19)</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>1320</v>
       </c>
       <c r="C20">
         <f t="shared" si="2"/>
-        <v>260</v>
+        <v>315</v>
       </c>
       <c r="D20">
         <f>VLOOKUP(A20,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>25</v>
+        <v>1250</v>
       </c>
       <c r="E20">
         <f>VLOOKUP(A20,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="F20">
-        <f>SQRT((B20-D20)^2+(C20-E20)^2)</f>
-        <v>76.157731058639087</v>
+        <f t="shared" si="0"/>
+        <v>110.11357772772621</v>
       </c>
       <c r="G20">
-        <v>76.157731058639001</v>
-      </c>
-      <c r="H20" t="str">
-        <f>IF(ABS(F20-G20)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F20)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>1250</v>
       </c>
       <c r="C21">
         <f t="shared" si="2"/>
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="D21">
         <f>VLOOKUP(A21,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>25</v>
+        <v>1220</v>
       </c>
       <c r="E21">
         <f>VLOOKUP(A21,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>185</v>
+        <v>580</v>
       </c>
       <c r="F21">
-        <f>SQRT((B21-D21)^2+(C21-E21)^2)</f>
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>182.4828759089466</v>
       </c>
       <c r="G21">
-        <v>45</v>
-      </c>
-      <c r="H21" t="str">
-        <f>IF(ABS(F21-G21)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F21)</f>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>1220</v>
       </c>
       <c r="C22">
         <f t="shared" si="2"/>
-        <v>185</v>
+        <v>580</v>
       </c>
       <c r="D22">
         <f>VLOOKUP(A22,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>410</v>
+        <v>975</v>
       </c>
       <c r="E22">
         <f>VLOOKUP(A22,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="F22">
-        <f>SQRT((B22-D22)^2+(C22-E22)^2)</f>
-        <v>390.44846010709273</v>
+        <f t="shared" si="0"/>
+        <v>245</v>
       </c>
       <c r="G22">
-        <v>390.44846010709199</v>
-      </c>
-      <c r="H22" t="str">
-        <f>IF(ABS(F22-G22)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="0"/>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F22)</f>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B23">
         <f t="shared" si="1"/>
-        <v>410</v>
+        <v>975</v>
       </c>
       <c r="C23">
         <f t="shared" si="2"/>
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="D23">
         <f>VLOOKUP(A23,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>660</v>
+        <v>945</v>
       </c>
       <c r="E23">
         <f>VLOOKUP(A23,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>180</v>
+        <v>685</v>
       </c>
       <c r="F23">
-        <f>SQRT((B23-D23)^2+(C23-E23)^2)</f>
-        <v>259.61509971494337</v>
+        <f t="shared" si="0"/>
+        <v>109.20164833920778</v>
       </c>
       <c r="G23">
-        <v>259.61509971494303</v>
-      </c>
-      <c r="H23" t="str">
-        <f>IF(ABS(F23-G23)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="0"/>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F23)</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B24">
         <f t="shared" si="1"/>
-        <v>660</v>
+        <v>945</v>
       </c>
       <c r="C24">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>685</v>
       </c>
       <c r="D24">
         <f>VLOOKUP(A24,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>725</v>
+        <v>880</v>
       </c>
       <c r="E24">
         <f>VLOOKUP(A24,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>370</v>
+        <v>660</v>
       </c>
       <c r="F24">
-        <f>SQRT((B24-D24)^2+(C24-E24)^2)</f>
-        <v>200.81085628023203</v>
+        <f t="shared" si="0"/>
+        <v>69.641941385920603</v>
       </c>
       <c r="G24">
-        <v>200.810856280232</v>
-      </c>
-      <c r="H24" t="str">
-        <f>IF(ABS(F24-G24)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F24)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
-        <v>725</v>
+        <v>880</v>
       </c>
       <c r="C25">
         <f t="shared" si="2"/>
-        <v>370</v>
+        <v>660</v>
       </c>
       <c r="D25">
         <f>VLOOKUP(A25,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>830</v>
+        <v>845</v>
       </c>
       <c r="E25">
         <f>VLOOKUP(A25,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>485</v>
+        <v>680</v>
       </c>
       <c r="F25">
-        <f>SQRT((B25-D25)^2+(C25-E25)^2)</f>
-        <v>155.72411502397438</v>
+        <f t="shared" si="0"/>
+        <v>40.311288741492746</v>
       </c>
       <c r="G25">
-        <v>155.72411502397401</v>
-      </c>
-      <c r="H25" t="str">
-        <f>IF(ABS(F25-G25)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F25)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
-        <v>830</v>
+        <v>845</v>
       </c>
       <c r="C26">
         <f t="shared" si="2"/>
-        <v>485</v>
+        <v>680</v>
       </c>
       <c r="D26">
         <f>VLOOKUP(A26,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>830</v>
+        <v>845</v>
       </c>
       <c r="E26">
         <f>VLOOKUP(A26,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="F26">
-        <f>SQRT((B26-D26)^2+(C26-E26)^2)</f>
-        <v>125</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="G26">
-        <v>125</v>
-      </c>
-      <c r="H26" t="str">
-        <f>IF(ABS(F26-G26)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F26)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
-        <v>830</v>
+        <v>845</v>
       </c>
       <c r="C27">
         <f t="shared" si="2"/>
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="D27">
         <f>VLOOKUP(A27,coords!$A$1:$C$53,2,FALSE)</f>
@@ -1387,24 +1195,17 @@
         <v>625</v>
       </c>
       <c r="F27">
-        <f>SQRT((B27-D27)^2+(C27-E27)^2)</f>
-        <v>15.811388300841896</v>
+        <f t="shared" si="0"/>
+        <v>31.622776601683793</v>
       </c>
       <c r="G27">
-        <v>15.8113883008418</v>
-      </c>
-      <c r="H27" t="str">
-        <f>IF(ABS(F27-G27)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F27)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
@@ -1416,867 +1217,699 @@
       </c>
       <c r="D28">
         <f>VLOOKUP(A28,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>845</v>
+        <v>830</v>
       </c>
       <c r="E28">
         <f>VLOOKUP(A28,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="F28">
-        <f>SQRT((B28-D28)^2+(C28-E28)^2)</f>
-        <v>31.622776601683793</v>
+        <f t="shared" si="0"/>
+        <v>15.811388300841896</v>
       </c>
       <c r="G28">
-        <v>31.6227766016837</v>
-      </c>
-      <c r="H28" t="str">
-        <f>IF(ABS(F28-G28)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F28)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <f t="shared" si="1"/>
-        <v>845</v>
+        <v>830</v>
       </c>
       <c r="C29">
         <f t="shared" si="2"/>
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="D29">
         <f>VLOOKUP(A29,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>845</v>
+        <v>795</v>
       </c>
       <c r="E29">
         <f>VLOOKUP(A29,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>680</v>
+        <v>645</v>
       </c>
       <c r="F29">
-        <f>SQRT((B29-D29)^2+(C29-E29)^2)</f>
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>49.497474683058329</v>
       </c>
       <c r="G29">
-        <v>25</v>
-      </c>
-      <c r="H29" t="str">
-        <f>IF(ABS(F29-G29)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F29)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
-        <v>845</v>
+        <v>795</v>
       </c>
       <c r="C30">
         <f t="shared" si="2"/>
-        <v>680</v>
+        <v>645</v>
       </c>
       <c r="D30">
         <f>VLOOKUP(A30,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>880</v>
+        <v>770</v>
       </c>
       <c r="E30">
         <f>VLOOKUP(A30,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>660</v>
+        <v>610</v>
       </c>
       <c r="F30">
-        <f>SQRT((B30-D30)^2+(C30-E30)^2)</f>
-        <v>40.311288741492746</v>
+        <f t="shared" si="0"/>
+        <v>43.011626335213137</v>
       </c>
       <c r="G30">
-        <v>40.311288741492703</v>
-      </c>
-      <c r="H30" t="str">
-        <f>IF(ABS(F30-G30)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F30)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <f t="shared" si="1"/>
-        <v>880</v>
+        <v>770</v>
       </c>
       <c r="C31">
         <f t="shared" si="2"/>
-        <v>660</v>
+        <v>610</v>
       </c>
       <c r="D31">
         <f>VLOOKUP(A31,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>945</v>
+        <v>760</v>
       </c>
       <c r="E31">
         <f>VLOOKUP(A31,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>685</v>
+        <v>650</v>
       </c>
       <c r="F31">
-        <f>SQRT((B31-D31)^2+(C31-E31)^2)</f>
-        <v>69.641941385920603</v>
+        <f t="shared" si="0"/>
+        <v>41.231056256176608</v>
       </c>
       <c r="G31">
-        <v>69.641941385920603</v>
-      </c>
-      <c r="H31" t="str">
-        <f>IF(ABS(F31-G31)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J31">
         <f>_xlfn.FLOOR.MATH(F31)</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <f t="shared" si="1"/>
-        <v>945</v>
+        <v>760</v>
       </c>
       <c r="C32">
         <f t="shared" si="2"/>
-        <v>685</v>
+        <v>650</v>
       </c>
       <c r="D32">
         <f>VLOOKUP(A32,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>975</v>
+        <v>720</v>
       </c>
       <c r="E32">
         <f>VLOOKUP(A32,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>580</v>
+        <v>635</v>
       </c>
       <c r="F32">
-        <f>SQRT((B32-D32)^2+(C32-E32)^2)</f>
-        <v>109.20164833920778</v>
+        <f t="shared" si="0"/>
+        <v>42.720018726587654</v>
       </c>
       <c r="G32">
-        <v>109.201648339207</v>
-      </c>
-      <c r="H32" t="str">
-        <f>IF(ABS(F32-G32)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J32">
-        <f t="shared" ref="J32:J53" si="3">_xlfn.FLOOR.MATH(F32)</f>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F32)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <f t="shared" si="1"/>
-        <v>975</v>
+        <v>720</v>
       </c>
       <c r="C33">
         <f t="shared" si="2"/>
-        <v>580</v>
+        <v>635</v>
       </c>
       <c r="D33">
         <f>VLOOKUP(A33,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>1220</v>
+        <v>685</v>
       </c>
       <c r="E33">
         <f>VLOOKUP(A33,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="F33">
-        <f>SQRT((B33-D33)^2+(C33-E33)^2)</f>
-        <v>245</v>
+        <f t="shared" si="0"/>
+        <v>43.011626335213137</v>
       </c>
       <c r="G33">
-        <v>245</v>
-      </c>
-      <c r="H33" t="str">
-        <f>IF(ABS(F33-G33)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="3"/>
-        <v>245</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F33)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
-        <v>1220</v>
+        <v>685</v>
       </c>
       <c r="C34">
         <f t="shared" si="2"/>
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="D34">
         <f>VLOOKUP(A34,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>1250</v>
+        <v>685</v>
       </c>
       <c r="E34">
         <f>VLOOKUP(A34,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>400</v>
+        <v>595</v>
       </c>
       <c r="F34">
-        <f>SQRT((B34-D34)^2+(C34-E34)^2)</f>
-        <v>182.4828759089466</v>
+        <f t="shared" ref="F34:F53" si="3">SQRT((B34-D34)^2+(C34-E34)^2)</f>
+        <v>15</v>
       </c>
       <c r="G34">
-        <v>182.482875908946</v>
-      </c>
-      <c r="H34" t="str">
-        <f>IF(ABS(F34-G34)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="3"/>
-        <v>182</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F34)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
-        <v>1250</v>
+        <v>685</v>
       </c>
       <c r="C35">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>595</v>
       </c>
       <c r="D35">
         <f>VLOOKUP(A35,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>1320</v>
+        <v>700</v>
       </c>
       <c r="E35">
         <f>VLOOKUP(A35,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>315</v>
+        <v>580</v>
       </c>
       <c r="F35">
-        <f>SQRT((B35-D35)^2+(C35-E35)^2)</f>
-        <v>110.11357772772621</v>
+        <f t="shared" si="3"/>
+        <v>21.213203435596427</v>
       </c>
       <c r="G35">
-        <v>110.113577727726</v>
-      </c>
-      <c r="H35" t="str">
-        <f>IF(ABS(F35-G35)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="3"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F35)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
-        <v>1320</v>
+        <v>700</v>
       </c>
       <c r="C36">
         <f t="shared" si="2"/>
-        <v>315</v>
+        <v>580</v>
       </c>
       <c r="D36">
         <f>VLOOKUP(A36,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>1215</v>
+        <v>700</v>
       </c>
       <c r="E36">
         <f>VLOOKUP(A36,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>245</v>
+        <v>500</v>
       </c>
       <c r="F36">
-        <f>SQRT((B36-D36)^2+(C36-E36)^2)</f>
-        <v>126.19429464123962</v>
+        <f t="shared" si="3"/>
+        <v>80</v>
       </c>
       <c r="G36">
-        <v>126.194294641239</v>
-      </c>
-      <c r="H36" t="str">
-        <f>IF(ABS(F36-G36)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="3"/>
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F36)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
-        <v>1215</v>
+        <v>700</v>
       </c>
       <c r="C37">
         <f t="shared" si="2"/>
-        <v>245</v>
+        <v>500</v>
       </c>
       <c r="D37">
         <f>VLOOKUP(A37,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>1170</v>
+        <v>830</v>
       </c>
       <c r="E37">
         <f>VLOOKUP(A37,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>65</v>
+        <v>485</v>
       </c>
       <c r="F37">
-        <f>SQRT((B37-D37)^2+(C37-E37)^2)</f>
-        <v>185.53975315279473</v>
+        <f t="shared" si="3"/>
+        <v>130.86252328302402</v>
       </c>
       <c r="G37">
-        <v>185.53975315279399</v>
-      </c>
-      <c r="H37" t="str">
-        <f>IF(ABS(F37-G37)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="3"/>
-        <v>185</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F37)</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
-        <v>1170</v>
+        <v>830</v>
       </c>
       <c r="C38">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>485</v>
       </c>
       <c r="D38">
         <f>VLOOKUP(A38,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>1530</v>
+        <v>725</v>
       </c>
       <c r="E38">
         <f>VLOOKUP(A38,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>5</v>
+        <v>370</v>
       </c>
       <c r="F38">
-        <f>SQRT((B38-D38)^2+(C38-E38)^2)</f>
-        <v>364.96575181789319</v>
+        <f t="shared" si="3"/>
+        <v>155.72411502397438</v>
       </c>
       <c r="G38">
-        <v>364.96575181789302</v>
-      </c>
-      <c r="H38" t="str">
-        <f>IF(ABS(F38-G38)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="3"/>
-        <v>364</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F38)</f>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
-        <v>1530</v>
+        <v>725</v>
       </c>
       <c r="C39">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>370</v>
       </c>
       <c r="D39">
         <f>VLOOKUP(A39,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>1465</v>
+        <v>660</v>
       </c>
       <c r="E39">
         <f>VLOOKUP(A39,coords!$A$1:$C$53,3,FALSE)</f>
+        <v>180</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>200.81085628023203</v>
+      </c>
+      <c r="G39">
+        <f>_xlfn.FLOOR.MATH(F39)</f>
         <v>200</v>
       </c>
-      <c r="F39">
-        <f>SQRT((B39-D39)^2+(C39-E39)^2)</f>
-        <v>205.54804791094466</v>
-      </c>
-      <c r="G39">
-        <v>205.54804791094401</v>
-      </c>
-      <c r="H39" t="str">
-        <f>IF(ABS(F39-G39)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="3"/>
-        <v>205</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B40">
         <f t="shared" si="1"/>
-        <v>1465</v>
+        <v>660</v>
       </c>
       <c r="C40">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D40">
         <f>VLOOKUP(A40,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>1740</v>
+        <v>595</v>
       </c>
       <c r="E40">
         <f>VLOOKUP(A40,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>245</v>
+        <v>360</v>
       </c>
       <c r="F40">
-        <f>SQRT((B40-D40)^2+(C40-E40)^2)</f>
-        <v>278.65749586185547</v>
+        <f t="shared" si="3"/>
+        <v>191.37659209004639</v>
       </c>
       <c r="G40">
-        <v>278.65749586185501</v>
-      </c>
-      <c r="H40" t="str">
-        <f>IF(ABS(F40-G40)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="3"/>
-        <v>278</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F40)</f>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B41">
         <f t="shared" si="1"/>
-        <v>1740</v>
+        <v>595</v>
       </c>
       <c r="C41">
         <f t="shared" si="2"/>
-        <v>245</v>
+        <v>360</v>
       </c>
       <c r="D41">
         <f>VLOOKUP(A41,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>1605</v>
+        <v>560</v>
       </c>
       <c r="E41">
         <f>VLOOKUP(A41,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>620</v>
+        <v>365</v>
       </c>
       <c r="F41">
-        <f>SQRT((B41-D41)^2+(C41-E41)^2)</f>
-        <v>398.55990766759265</v>
+        <f t="shared" si="3"/>
+        <v>35.355339059327378</v>
       </c>
       <c r="G41">
-        <v>398.55990766759197</v>
-      </c>
-      <c r="H41" t="str">
-        <f>IF(ABS(F41-G41)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="3"/>
-        <v>398</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F41)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
-        <v>1605</v>
+        <v>560</v>
       </c>
       <c r="C42">
         <f t="shared" si="2"/>
-        <v>620</v>
+        <v>365</v>
       </c>
       <c r="D42">
         <f>VLOOKUP(A42,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>1340</v>
+        <v>480</v>
       </c>
       <c r="E42">
         <f>VLOOKUP(A42,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>725</v>
+        <v>415</v>
       </c>
       <c r="F42">
-        <f>SQRT((B42-D42)^2+(C42-E42)^2)</f>
-        <v>285.0438562747845</v>
+        <f t="shared" si="3"/>
+        <v>94.339811320566042</v>
       </c>
       <c r="G42">
-        <v>285.04385627478399</v>
-      </c>
-      <c r="H42" t="str">
-        <f>IF(ABS(F42-G42)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="3"/>
-        <v>285</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F42)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B43">
         <f t="shared" si="1"/>
-        <v>1340</v>
+        <v>480</v>
       </c>
       <c r="C43">
         <f t="shared" si="2"/>
-        <v>725</v>
+        <v>415</v>
       </c>
       <c r="D43">
         <f>VLOOKUP(A43,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>1150</v>
+        <v>410</v>
       </c>
       <c r="E43">
         <f>VLOOKUP(A43,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>1160</v>
+        <v>250</v>
       </c>
       <c r="F43">
-        <f>SQRT((B43-D43)^2+(C43-E43)^2)</f>
-        <v>474.68410548490033</v>
+        <f t="shared" si="3"/>
+        <v>179.23448328934921</v>
       </c>
       <c r="G43">
-        <v>474.68410548489999</v>
-      </c>
-      <c r="H43" t="str">
-        <f>IF(ABS(F43-G43)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="3"/>
-        <v>474</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F43)</f>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="B44">
         <f t="shared" si="1"/>
-        <v>1150</v>
+        <v>410</v>
       </c>
       <c r="C44">
         <f t="shared" si="2"/>
-        <v>1160</v>
+        <v>250</v>
       </c>
       <c r="D44">
         <f>VLOOKUP(A44,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>875</v>
+        <v>25</v>
       </c>
       <c r="E44">
         <f>VLOOKUP(A44,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>920</v>
+        <v>185</v>
       </c>
       <c r="F44">
-        <f>SQRT((B44-D44)^2+(C44-E44)^2)</f>
-        <v>365</v>
+        <f t="shared" si="3"/>
+        <v>390.44846010709273</v>
       </c>
       <c r="G44">
-        <v>365</v>
-      </c>
-      <c r="H44" t="str">
-        <f>IF(ABS(F44-G44)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="3"/>
-        <v>365</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F44)</f>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B45">
         <f t="shared" si="1"/>
-        <v>875</v>
+        <v>25</v>
       </c>
       <c r="C45">
         <f t="shared" si="2"/>
-        <v>920</v>
+        <v>185</v>
       </c>
       <c r="D45">
         <f>VLOOKUP(A45,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>650</v>
+        <v>25</v>
       </c>
       <c r="E45">
         <f>VLOOKUP(A45,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>1130</v>
+        <v>230</v>
       </c>
       <c r="F45">
-        <f>SQRT((B45-D45)^2+(C45-E45)^2)</f>
-        <v>307.77426793024785</v>
+        <f t="shared" si="3"/>
+        <v>45</v>
       </c>
       <c r="G45">
-        <v>307.77426793024699</v>
-      </c>
-      <c r="H45" t="str">
-        <f>IF(ABS(F45-G45)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="3"/>
-        <v>307</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F45)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B46">
         <f t="shared" si="1"/>
-        <v>650</v>
+        <v>25</v>
       </c>
       <c r="C46">
         <f t="shared" si="2"/>
-        <v>1130</v>
+        <v>230</v>
       </c>
       <c r="D46">
         <f>VLOOKUP(A46,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>580</v>
+        <v>95</v>
       </c>
       <c r="E46">
         <f>VLOOKUP(A46,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>1175</v>
+        <v>260</v>
       </c>
       <c r="F46">
-        <f>SQRT((B46-D46)^2+(C46-E46)^2)</f>
-        <v>83.21658488546619</v>
+        <f t="shared" si="3"/>
+        <v>76.157731058639087</v>
       </c>
       <c r="G46">
-        <v>83.216584885466105</v>
-      </c>
-      <c r="H46" t="str">
-        <f>IF(ABS(F46-G46)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="3"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F46)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B47">
         <f t="shared" si="1"/>
-        <v>580</v>
+        <v>95</v>
       </c>
       <c r="C47">
         <f t="shared" si="2"/>
-        <v>1175</v>
+        <v>260</v>
       </c>
       <c r="D47">
         <f>VLOOKUP(A47,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>525</v>
+        <v>300</v>
       </c>
       <c r="E47">
         <f>VLOOKUP(A47,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>1000</v>
+        <v>465</v>
       </c>
       <c r="F47">
-        <f>SQRT((B47-D47)^2+(C47-E47)^2)</f>
-        <v>183.43936327844142</v>
+        <f t="shared" si="3"/>
+        <v>289.9137802864845</v>
       </c>
       <c r="G47">
-        <v>183.43936327844099</v>
-      </c>
-      <c r="H47" t="str">
-        <f>IF(ABS(F47-G47)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="3"/>
-        <v>183</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F47)</f>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B48">
         <f t="shared" si="1"/>
-        <v>525</v>
+        <v>300</v>
       </c>
       <c r="C48">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>465</v>
       </c>
       <c r="D48">
         <f>VLOOKUP(A48,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>475</v>
+        <v>145</v>
       </c>
       <c r="E48">
         <f>VLOOKUP(A48,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>960</v>
+        <v>665</v>
       </c>
       <c r="F48">
-        <f>SQRT((B48-D48)^2+(C48-E48)^2)</f>
-        <v>64.031242374328485</v>
+        <f t="shared" si="3"/>
+        <v>253.03161857759991</v>
       </c>
       <c r="G48">
-        <v>64.0312423743284</v>
-      </c>
-      <c r="H48" t="str">
-        <f>IF(ABS(F48-G48)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="3"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F48)</f>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B49">
         <f t="shared" si="1"/>
-        <v>475</v>
+        <v>145</v>
       </c>
       <c r="C49">
         <f t="shared" si="2"/>
-        <v>960</v>
+        <v>665</v>
       </c>
       <c r="D49">
         <f>VLOOKUP(A49,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>510</v>
+        <v>345</v>
       </c>
       <c r="E49">
         <f>VLOOKUP(A49,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="F49">
-        <f>SQRT((B49-D49)^2+(C49-E49)^2)</f>
-        <v>91.923881554251182</v>
+        <f t="shared" si="3"/>
+        <v>217.31313812100731</v>
       </c>
       <c r="G49">
-        <v>91.923881554251096</v>
-      </c>
-      <c r="H49" t="str">
-        <f>IF(ABS(F49-G49)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="3"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F49)</f>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="B50">
         <f t="shared" si="1"/>
-        <v>510</v>
+        <v>345</v>
       </c>
       <c r="C50">
         <f t="shared" si="2"/>
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="D50">
         <f>VLOOKUP(A50,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>555</v>
+        <v>415</v>
       </c>
       <c r="E50">
         <f>VLOOKUP(A50,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>815</v>
+        <v>635</v>
       </c>
       <c r="F50">
-        <f>SQRT((B50-D50)^2+(C50-E50)^2)</f>
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>134.6291201783626</v>
       </c>
       <c r="G50">
-        <v>75</v>
-      </c>
-      <c r="H50" t="str">
-        <f>IF(ABS(F50-G50)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F50)</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B51">
         <f t="shared" si="1"/>
-        <v>555</v>
+        <v>415</v>
       </c>
       <c r="C51">
         <f t="shared" si="2"/>
-        <v>815</v>
+        <v>635</v>
       </c>
       <c r="D51">
         <f>VLOOKUP(A51,coords!$A$1:$C$53,2,FALSE)</f>
-        <v>575</v>
+        <v>420</v>
       </c>
       <c r="E51">
         <f>VLOOKUP(A51,coords!$A$1:$C$53,3,FALSE)</f>
-        <v>665</v>
+        <v>555</v>
       </c>
       <c r="F51">
-        <f>SQRT((B51-D51)^2+(C51-E51)^2)</f>
-        <v>151.32745950421557</v>
+        <f t="shared" si="3"/>
+        <v>80.156097709406993</v>
       </c>
       <c r="G51">
-        <v>151.327459504215</v>
-      </c>
-      <c r="H51" t="str">
-        <f>IF(ABS(F51-G51)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="3"/>
-        <v>151</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F51)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>21</v>
       </c>
       <c r="B52">
         <f t="shared" si="1"/>
-        <v>575</v>
+        <v>420</v>
       </c>
       <c r="C52">
         <f t="shared" si="2"/>
-        <v>665</v>
+        <v>555</v>
       </c>
       <c r="D52">
         <f>VLOOKUP(A52,coords!$A$1:$C$53,2,FALSE)</f>
@@ -2287,22 +1920,15 @@
         <v>585</v>
       </c>
       <c r="F52">
-        <f>SQRT((B52-D52)^2+(C52-E52)^2)</f>
-        <v>97.082439194738001</v>
+        <f t="shared" si="3"/>
+        <v>104.4030650891055</v>
       </c>
       <c r="G52">
-        <v>97.082439194738001</v>
-      </c>
-      <c r="H52" t="str">
-        <f>IF(ABS(F52-G52)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="3"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.FLOOR.MATH(F52)</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0</v>
       </c>
@@ -2323,41 +1949,22 @@
         <v>575</v>
       </c>
       <c r="F53">
-        <f>SQRT((B53-D53)^2+(C53-E53)^2)</f>
+        <f t="shared" si="3"/>
         <v>46.097722286464439</v>
       </c>
       <c r="G53">
-        <v>46.097722286464403</v>
-      </c>
-      <c r="H53" t="str">
-        <f>IF(ABS(F53-G53)&lt;10^-5,"OK","NOK")</f>
-        <v>OK</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="3"/>
+        <f>_xlfn.FLOOR.MATH(F53)</f>
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F55">
         <f>SUM(F2:F53)</f>
-        <v>7782.8099217233794</v>
+        <v>7544.365901904087</v>
       </c>
       <c r="G55">
-        <f t="shared" ref="G55:J55" si="4">SUM(G2:G53)</f>
-        <v>7782.8099217233639</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="4"/>
-        <v>7765</v>
+        <f t="shared" ref="G55" si="4">SUM(G2:G53)</f>
+        <v>7526</v>
       </c>
     </row>
   </sheetData>
@@ -2371,7 +1978,7 @@
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B50" sqref="B50:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2965,6 +2572,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001A21180D13AE6E41BADF848379D7A66C" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="aea6482f1c93f497a6777ac7464e0977">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b069087e-de42-490a-9f79-b380f05a3065" xmlns:ns4="cba03241-7a8e-4dc6-9165-2280a0e61270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71354dda5196913877a100aa215b8ae0" ns3:_="" ns4:_="">
     <xsd:import namespace="b069087e-de42-490a-9f79-b380f05a3065"/>
@@ -3187,22 +2809,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADB59CC0-8C21-47CA-89AF-93D397568CD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A73EB18A-012F-42E3-BB5B-D52DF1C3779F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75FEAE56-1BBC-46F8-A47D-A5E90D9F6940}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3219,21 +2843,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A73EB18A-012F-42E3-BB5B-D52DF1C3779F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADB59CC0-8C21-47CA-89AF-93D397568CD9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>